--- a/data/data_crawl/extreme_phenomena.xlsx
+++ b/data/data_crawl/extreme_phenomena.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mihigh\Desktop\personal_projects\climate_watch\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mihigh\Desktop\personal_projects\climate_watch\data\data_crawl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624A21B9-A944-4B45-A3E5-18C77D4853C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B453DFF-71A2-4DA2-99BC-32DF576DC8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F845312-317F-4C1B-BF76-1D72FEC13636}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Furtună</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Fenomene</t>
+  </si>
+  <si>
+    <t>Incendii</t>
   </si>
 </sst>
 </file>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EA017-250F-4F61-9AF8-D289A6BF79EA}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,6 +550,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
